--- a/MainTop/09.03.2025/макс с 09.02.2025 по 09.03.2025/Упаковка_спрос_9-3-2025 макс с 9-2-2025 по 9-3-2025_sorted.xlsx
+++ b/MainTop/09.03.2025/макс с 09.02.2025 по 09.03.2025/Упаковка_спрос_9-3-2025 макс с 9-2-2025 по 9-3-2025_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\09.03.2025\макс с 09.02.2025 по 09.03.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2FC704-75F2-40D9-BE40-1E212D0B6DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE54363E-9F77-4C87-A7C2-530F9C995FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1010,13 +1010,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
